--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-masking-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="120">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,67 +43,82 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>crap</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
     <t>thin</t>
   </si>
   <si>
-    <t>disappointment</t>
-  </si>
-  <si>
     <t>ripped</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>crap</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>inches</t>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>smaller</t>
   </si>
   <si>
     <t>junk</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>noise</t>
-  </si>
-  <si>
-    <t>smaller</t>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>small</t>
   </si>
   <si>
     <t>instead</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>low</t>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>lasted</t>
   </si>
   <si>
     <t>broken</t>
@@ -112,162 +127,123 @@
     <t>short</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>lasted</t>
-  </si>
-  <si>
-    <t>probably</t>
+    <t>pay</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>un</t>
-  </si>
-  <si>
     <t>fell</t>
   </si>
   <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>di</t>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>color</t>
   </si>
   <si>
     <t>tried</t>
   </si>
   <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>fl</t>
+    <t>bit</t>
   </si>
   <si>
     <t>sound</t>
   </si>
   <si>
-    <t>return</t>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>hard</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>minutes</t>
-  </si>
-  <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>picture</t>
+    <t>would</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>look</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>back</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>work</t>
   </si>
   <si>
     <t>money</t>
   </si>
   <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>need</t>
+    <t>used</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
     <t>box</t>
   </si>
   <si>
-    <t>3</t>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>use</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
@@ -277,13 +253,19 @@
     <t>even</t>
   </si>
   <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>toy</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
     <t>much</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>toy</t>
+    <t>get</t>
   </si>
   <si>
     <t>negative</t>
@@ -292,24 +274,24 @@
     <t>wonderful</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>awesome</t>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>enjoyable</t>
   </si>
   <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>enjoyable</t>
-  </si>
-  <si>
     <t>classic</t>
   </si>
   <si>
@@ -325,61 +307,61 @@
     <t>great</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>grandchildren</t>
   </si>
   <si>
     <t>learn</t>
   </si>
   <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
     <t>every</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
     <t>birthday</t>
   </si>
   <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>cute</t>
+  </si>
+  <si>
     <t>game</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>cute</t>
-  </si>
-  <si>
-    <t>nice</t>
   </si>
   <si>
     <t>playing</t>
@@ -749,7 +731,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q84"/>
+  <dimension ref="A1:Q78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -757,10 +739,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="J1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -818,13 +800,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9347826086956522</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="C3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -836,19 +818,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K3">
-        <v>0.8928571428571429</v>
+        <v>0.875</v>
       </c>
       <c r="L3">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M3">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -860,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -868,13 +850,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8181818181818182</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -886,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K4">
-        <v>0.8518518518518519</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L4">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -910,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -918,13 +900,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7931034482758621</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -936,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="K5">
-        <v>0.8307692307692308</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L5">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="M5">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -960,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -968,13 +950,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7619047619047619</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -989,16 +971,16 @@
         <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K6">
-        <v>0.8125</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="L6">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="M6">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1010,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1018,13 +1000,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7407407407407407</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1036,19 +1018,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K7">
-        <v>0.8064516129032258</v>
+        <v>0.8</v>
       </c>
       <c r="L7">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="M7">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1060,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1068,13 +1050,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7368421052631579</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1086,19 +1068,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="K8">
-        <v>0.8</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L8">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M8">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1110,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1118,13 +1100,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7183098591549296</v>
+        <v>0.671875</v>
       </c>
       <c r="C9">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D9">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1136,19 +1118,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="K9">
-        <v>0.75</v>
+        <v>0.734375</v>
       </c>
       <c r="L9">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="M9">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1160,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1168,13 +1150,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7142857142857143</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1186,19 +1168,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="K10">
-        <v>0.6792452830188679</v>
+        <v>0.6415094339622641</v>
       </c>
       <c r="L10">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M10">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1210,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1218,13 +1200,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6875</v>
+        <v>0.6397849462365591</v>
       </c>
       <c r="C11">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="D11">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1236,19 +1218,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="K11">
-        <v>0.5509325681492109</v>
+        <v>0.5681492109038737</v>
       </c>
       <c r="L11">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="M11">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1260,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>313</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1268,13 +1250,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6818181818181818</v>
+        <v>0.6262135922330098</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1286,10 +1268,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K12">
         <v>0.5217391304347826</v>
@@ -1318,13 +1300,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6727272727272727</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="C13">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D13">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1336,19 +1318,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K13">
-        <v>0.4813278008298755</v>
+        <v>0.4937759336099585</v>
       </c>
       <c r="L13">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="M13">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1360,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1368,13 +1350,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6621621621621622</v>
+        <v>0.5878378378378378</v>
       </c>
       <c r="C14">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D14">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1386,19 +1368,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="K14">
-        <v>0.4377049180327869</v>
+        <v>0.4409836065573771</v>
       </c>
       <c r="L14">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="M14">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1410,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1418,13 +1400,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6559139784946236</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C15">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="D15">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1436,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="K15">
-        <v>0.382262996941896</v>
+        <v>0.3373493975903614</v>
       </c>
       <c r="L15">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="M15">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1460,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>202</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1468,13 +1450,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6285714285714286</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D16">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1486,19 +1468,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="K16">
-        <v>0.3584905660377358</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L16">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="M16">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1510,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>34</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1518,13 +1500,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6285714285714286</v>
+        <v>0.5546218487394958</v>
       </c>
       <c r="C17">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="D17">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1536,19 +1518,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="J17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17">
+        <v>0.3211009174311927</v>
+      </c>
+      <c r="L17">
         <v>105</v>
       </c>
-      <c r="K17">
-        <v>0.325</v>
-      </c>
-      <c r="L17">
-        <v>39</v>
-      </c>
       <c r="M17">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1560,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>81</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1568,13 +1550,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5825242718446602</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C18">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="D18">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1586,19 +1568,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="K18">
-        <v>0.3227513227513227</v>
+        <v>0.3068783068783069</v>
       </c>
       <c r="L18">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M18">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1610,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1618,13 +1600,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5714285714285714</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C19">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D19">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1636,19 +1618,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K19">
-        <v>0.3192771084337349</v>
+        <v>0.3018867924528302</v>
       </c>
       <c r="L19">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="M19">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1660,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>113</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1668,38 +1650,38 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>19</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="L20">
         <v>15</v>
       </c>
-      <c r="D20">
+      <c r="M20">
         <v>15</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>12</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K20">
-        <v>0.2711864406779661</v>
-      </c>
-      <c r="L20">
-        <v>16</v>
-      </c>
-      <c r="M20">
-        <v>16</v>
-      </c>
       <c r="N20">
         <v>1</v>
       </c>
@@ -1710,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1718,13 +1700,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5378151260504201</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="C21">
-        <v>64</v>
+        <v>165</v>
       </c>
       <c r="D21">
-        <v>64</v>
+        <v>165</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1736,19 +1718,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="K21">
-        <v>0.21875</v>
+        <v>0.2109375</v>
       </c>
       <c r="L21">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M21">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1760,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1768,13 +1750,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="C22">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D22">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1786,19 +1768,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="K22">
-        <v>0.184</v>
+        <v>0.1954022988505747</v>
       </c>
       <c r="L22">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M22">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1810,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>102</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1818,13 +1800,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4869565217391305</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C23">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="D23">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1836,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>177</v>
+        <v>25</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="K23">
-        <v>0.1807228915662651</v>
+        <v>0.1927710843373494</v>
       </c>
       <c r="L23">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M23">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1860,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1868,13 +1850,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4838709677419355</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C24">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D24">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1886,19 +1868,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K24">
-        <v>0.1746031746031746</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="L24">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M24">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1910,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1918,13 +1900,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4578313253012048</v>
+        <v>0.4259259259259259</v>
       </c>
       <c r="C25">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D25">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1936,19 +1918,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="K25">
-        <v>0.1720430107526882</v>
+        <v>0.1888111888111888</v>
       </c>
       <c r="L25">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M25">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1960,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>154</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1968,13 +1950,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4489795918367347</v>
+        <v>0.421875</v>
       </c>
       <c r="C26">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D26">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1986,19 +1968,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="K26">
-        <v>0.1678321678321678</v>
+        <v>0.1774193548387097</v>
       </c>
       <c r="L26">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="M26">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2010,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>119</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2018,13 +2000,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4444444444444444</v>
+        <v>0.4186046511627907</v>
       </c>
       <c r="C27">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D27">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2039,16 +2021,16 @@
         <v>25</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="K27">
-        <v>0.1454864154250657</v>
+        <v>0.152</v>
       </c>
       <c r="L27">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="M27">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2060,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>975</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2068,13 +2050,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4285714285714285</v>
+        <v>0.3858267716535433</v>
       </c>
       <c r="C28">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="D28">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2086,19 +2068,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="K28">
-        <v>0.1282051282051282</v>
+        <v>0.1516213847502191</v>
       </c>
       <c r="L28">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="M28">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2110,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>102</v>
+        <v>968</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2118,7 +2100,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4210526315789473</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C29">
         <v>16</v>
@@ -2136,31 +2118,31 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="K29">
-        <v>0.08122157244964262</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="L29">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="M29">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="N29">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>1414</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2168,13 +2150,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4075829383886256</v>
+        <v>0.3734939759036144</v>
       </c>
       <c r="C30">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="D30">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2186,19 +2168,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="K30">
-        <v>0.07754010695187166</v>
+        <v>0.0947075208913649</v>
       </c>
       <c r="L30">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M30">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2210,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>345</v>
+        <v>325</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2218,13 +2200,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4074074074074074</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="C31">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D31">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2236,19 +2218,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="K31">
-        <v>0.07520891364902507</v>
+        <v>0.08288770053475936</v>
       </c>
       <c r="L31">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M31">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2260,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>332</v>
+        <v>343</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2268,13 +2250,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4074074074074074</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="C32">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D32">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2286,19 +2268,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="K32">
-        <v>0.06614785992217899</v>
+        <v>0.08171206225680934</v>
       </c>
       <c r="L32">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M32">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2310,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2318,13 +2300,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3968253968253968</v>
+        <v>0.3507109004739337</v>
       </c>
       <c r="C33">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="D33">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2336,31 +2318,31 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="K33">
-        <v>0.05862068965517241</v>
+        <v>0.07797270955165692</v>
       </c>
       <c r="L33">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="M33">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>273</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2368,13 +2350,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3953488372093023</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C34">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D34">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2386,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="K34">
-        <v>0.05246913580246913</v>
+        <v>0.04629629629629629</v>
       </c>
       <c r="L34">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M34">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2410,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2418,13 +2400,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3818181818181818</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C35">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D35">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2436,31 +2418,31 @@
         <v>0</v>
       </c>
       <c r="H35">
+        <v>40</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K35">
+        <v>0.04533333333333334</v>
+      </c>
+      <c r="L35">
         <v>34</v>
       </c>
-      <c r="J35" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K35">
-        <v>0.04005340453938585</v>
-      </c>
-      <c r="L35">
-        <v>30</v>
-      </c>
       <c r="M35">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N35">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O35">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2468,13 +2450,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3707865168539326</v>
+        <v>0.3263157894736842</v>
       </c>
       <c r="C36">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D36">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2486,31 +2468,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="K36">
-        <v>0.03807615230460922</v>
+        <v>0.03012048192771084</v>
       </c>
       <c r="L36">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M36">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N36">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="O36">
-        <v>0.05000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2518,13 +2500,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3703703703703703</v>
+        <v>0.3203125</v>
       </c>
       <c r="C37">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="D37">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2536,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>34</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2544,13 +2526,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3684210526315789</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="C38">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D38">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2562,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>60</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2570,13 +2552,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3650793650793651</v>
+        <v>0.3146067415730337</v>
       </c>
       <c r="C39">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D39">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2588,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2596,13 +2578,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.359375</v>
+        <v>0.2985074626865671</v>
       </c>
       <c r="C40">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D40">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2614,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>82</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2622,13 +2604,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3543307086614173</v>
+        <v>0.293103448275862</v>
       </c>
       <c r="C41">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D41">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2640,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>82</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2648,13 +2630,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3333333333333333</v>
+        <v>0.2871287128712871</v>
       </c>
       <c r="C42">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="D42">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2666,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>40</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2674,13 +2656,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.3333333333333333</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C43">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D43">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2692,7 +2674,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2700,13 +2682,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.3125</v>
+        <v>0.2622950819672131</v>
       </c>
       <c r="C44">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D44">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2718,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2726,13 +2708,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.3114754098360656</v>
+        <v>0.2346938775510204</v>
       </c>
       <c r="C45">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D45">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2744,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>42</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2752,13 +2734,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.3035714285714285</v>
+        <v>0.2318840579710145</v>
       </c>
       <c r="C46">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D46">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2770,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2778,13 +2760,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2871287128712871</v>
+        <v>0.2297297297297297</v>
       </c>
       <c r="C47">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="D47">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2796,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>144</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2804,13 +2786,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2758620689655172</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="C48">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D48">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2822,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>42</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2830,13 +2812,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2608695652173913</v>
+        <v>0.1920289855072464</v>
       </c>
       <c r="C49">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="D49">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2848,7 +2830,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>51</v>
+        <v>223</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2856,13 +2838,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2419354838709677</v>
+        <v>0.19</v>
       </c>
       <c r="C50">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D50">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2874,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>47</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2882,13 +2864,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2371134020618557</v>
+        <v>0.1855670103092784</v>
       </c>
       <c r="C51">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D51">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2900,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2908,25 +2890,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2346938775510204</v>
+        <v>0.1696428571428572</v>
       </c>
       <c r="C52">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="D52">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <v>75</v>
+        <v>558</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2934,13 +2916,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.2238805970149254</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C53">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="D53">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2952,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>52</v>
+        <v>290</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2960,13 +2942,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2162162162162162</v>
+        <v>0.1495327102803738</v>
       </c>
       <c r="C54">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D54">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2978,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>58</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2986,13 +2968,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.2051282051282051</v>
+        <v>0.1484375</v>
       </c>
       <c r="C55">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D55">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3004,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3012,13 +2994,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1884057971014493</v>
+        <v>0.1440677966101695</v>
       </c>
       <c r="C56">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="D56">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3030,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>224</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3038,13 +3020,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1855670103092784</v>
+        <v>0.1357142857142857</v>
       </c>
       <c r="C57">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D57">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3056,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>79</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3064,13 +3046,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1752577319587629</v>
+        <v>0.1337579617834395</v>
       </c>
       <c r="C58">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D58">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3082,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>80</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3090,25 +3072,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1694915254237288</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="C59">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D59">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>98</v>
+        <v>273</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3116,25 +3098,25 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.162202380952381</v>
+        <v>0.1329113924050633</v>
       </c>
       <c r="C60">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="D60">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="E60">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>563</v>
+        <v>274</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3142,13 +3124,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.1580459770114943</v>
+        <v>0.1257142857142857</v>
       </c>
       <c r="C61">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D61">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3160,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>293</v>
+        <v>153</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3168,13 +3150,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1495327102803738</v>
+        <v>0.1147540983606557</v>
       </c>
       <c r="C62">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D62">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3186,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3194,25 +3176,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1487341772151899</v>
+        <v>0.1133603238866397</v>
       </c>
       <c r="C63">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="D63">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63">
-        <v>269</v>
+        <v>219</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3220,25 +3202,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1428571428571428</v>
+        <v>0.1086142322097378</v>
       </c>
       <c r="C64">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D64">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="E64">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3246,13 +3228,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1401273885350318</v>
+        <v>0.105726872246696</v>
       </c>
       <c r="C65">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D65">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3264,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>135</v>
+        <v>406</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3272,13 +3254,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1363636363636364</v>
+        <v>0.09947643979057591</v>
       </c>
       <c r="C66">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D66">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3290,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>133</v>
+        <v>172</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3298,13 +3280,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1357142857142857</v>
+        <v>0.09375</v>
       </c>
       <c r="C67">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D67">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3316,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>121</v>
+        <v>174</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3324,13 +3306,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.135</v>
+        <v>0.09316770186335403</v>
       </c>
       <c r="C68">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D68">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3342,7 +3324,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>173</v>
+        <v>146</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3350,25 +3332,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1307692307692308</v>
+        <v>0.08241758241758242</v>
       </c>
       <c r="C69">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D69">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69">
-        <v>113</v>
+        <v>334</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3376,25 +3358,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1277533039647577</v>
+        <v>0.078125</v>
       </c>
       <c r="C70">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="D70">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>396</v>
+        <v>413</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3402,25 +3384,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1257142857142857</v>
+        <v>0.066006600660066</v>
       </c>
       <c r="C71">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D71">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71">
-        <v>153</v>
+        <v>566</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3428,13 +3410,13 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1161048689138577</v>
+        <v>0.06478873239436619</v>
       </c>
       <c r="C72">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D72">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3446,7 +3428,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>236</v>
+        <v>332</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3454,25 +3436,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1058823529411765</v>
+        <v>0.06093189964157706</v>
       </c>
       <c r="C73">
+        <v>17</v>
+      </c>
+      <c r="D73">
         <v>18</v>
       </c>
-      <c r="D73">
-        <v>19</v>
-      </c>
       <c r="E73">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="F73">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>152</v>
+        <v>262</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3480,25 +3462,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1038251366120219</v>
+        <v>0.05063291139240506</v>
       </c>
       <c r="C74">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D74">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74">
-        <v>164</v>
+        <v>300</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3506,25 +3488,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1</v>
+        <v>0.03975535168195719</v>
       </c>
       <c r="C75">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D75">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E75">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F75">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
       </c>
       <c r="H75">
-        <v>171</v>
+        <v>628</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3532,25 +3514,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.0975609756097561</v>
+        <v>0.03934010152284264</v>
       </c>
       <c r="C76">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D76">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E76">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="F76">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
       </c>
       <c r="H76">
-        <v>222</v>
+        <v>757</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3558,25 +3540,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.0779510022271715</v>
+        <v>0.0351288056206089</v>
       </c>
       <c r="C77">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D77">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3584,181 +3566,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.07123287671232877</v>
+        <v>0.0351288056206089</v>
       </c>
       <c r="C78">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D78">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="G78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B79">
-        <v>0.06589785831960461</v>
-      </c>
-      <c r="C79">
-        <v>40</v>
-      </c>
-      <c r="D79">
-        <v>41</v>
-      </c>
-      <c r="E79">
-        <v>0.02</v>
-      </c>
-      <c r="F79">
-        <v>0.98</v>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B80">
-        <v>0.06197183098591549</v>
-      </c>
-      <c r="C80">
-        <v>22</v>
-      </c>
-      <c r="D80">
-        <v>22</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <v>1</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B81">
-        <v>0.06093189964157706</v>
-      </c>
-      <c r="C81">
-        <v>17</v>
-      </c>
-      <c r="D81">
-        <v>18</v>
-      </c>
-      <c r="E81">
-        <v>0.06</v>
-      </c>
-      <c r="F81">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G81" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B82">
-        <v>0.05568445475638051</v>
-      </c>
-      <c r="C82">
-        <v>24</v>
-      </c>
-      <c r="D82">
-        <v>27</v>
-      </c>
-      <c r="E82">
-        <v>0.11</v>
-      </c>
-      <c r="F82">
-        <v>0.89</v>
-      </c>
-      <c r="G82" t="b">
-        <v>1</v>
-      </c>
-      <c r="H82">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B83">
-        <v>0.04974489795918367</v>
-      </c>
-      <c r="C83">
-        <v>39</v>
-      </c>
-      <c r="D83">
-        <v>49</v>
-      </c>
-      <c r="E83">
-        <v>0.2</v>
-      </c>
-      <c r="F83">
-        <v>0.8</v>
-      </c>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B84">
-        <v>0.04754601226993865</v>
-      </c>
-      <c r="C84">
-        <v>31</v>
-      </c>
-      <c r="D84">
-        <v>34</v>
-      </c>
-      <c r="E84">
-        <v>0.09</v>
-      </c>
-      <c r="F84">
-        <v>0.91</v>
-      </c>
-      <c r="G84" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84">
-        <v>621</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
